--- a/Датасет. Задача 1.xlsx
+++ b/Датасет. Задача 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lebedevmatvey/Documents/Nlp_fastWin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FA8B96-D881-BE46-99E8-42C49E4E6160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9240A66A-5414-494A-90F3-7A42A8CB4787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="500" windowWidth="22580" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="500" windowWidth="21020" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -563,8 +563,8 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1193,7 +1193,7 @@
   <customSheetViews>
     <customSheetView guid="{71F580AC-51D4-4748-B8CB-11F173CE792A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="E1:I31" xr:uid="{AF262622-9E19-F64D-B60C-2B9A705B6F79}"/>
+      <autoFilter ref="E1:I31" xr:uid="{208E0402-3542-624C-8ECC-78D11E0F4589}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Датасет. Задача 1.xlsx
+++ b/Датасет. Задача 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lebedevmatvey/Documents/Nlp_fastWin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9240A66A-5414-494A-90F3-7A42A8CB4787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9928B04D-22A5-864A-A557-D4CC9867A5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="500" windowWidth="21020" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24460" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="61">
   <si>
     <t>Экологический мониторинг атмосферного воздуха</t>
   </si>
@@ -560,11 +560,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1188,12 +1188,29 @@
         <v>53</v>
       </c>
     </row>
+    <row r="37" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{71F580AC-51D4-4748-B8CB-11F173CE792A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="E1:I31" xr:uid="{208E0402-3542-624C-8ECC-78D11E0F4589}"/>
+      <autoFilter ref="E1:I31" xr:uid="{83330C06-EB69-4E4B-8CB8-C20B6B0EA3C1}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Датасет. Задача 1.xlsx
+++ b/Датасет. Задача 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lebedevmatvey/Documents/Nlp_fastWin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9928B04D-22A5-864A-A557-D4CC9867A5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C97C27-C47D-1442-BD92-2A5A1A91D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24460" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
